--- a/data/trans_orig/P14C27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF016F65-4A67-45DD-864F-B93A33846D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB1B04D-0E6D-48DE-B69C-164E16620656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B55D3558-A06D-45F5-A12E-7ED1266DA100}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2585B5-29B5-4F20-B8A4-15CBC1F36FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -128,10 +128,10 @@
     <t>43,55%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>71,93%</t>
@@ -146,19 +146,19 @@
     <t>61,56%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>56,45%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>10,89%</t>
@@ -170,10 +170,10 @@
     <t>27,54%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -188,7 +188,7 @@
     <t>10,9%</t>
   </si>
   <si>
-    <t>31,98%</t>
+    <t>32,83%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -203,19 +203,19 @@
     <t>45,45%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>54,09%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>26,53%</t>
@@ -227,19 +227,19 @@
     <t>47,72%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -248,13 +248,13 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>28,16%</t>
+    <t>34,2%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>21,4%</t>
+    <t>23,93%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -263,49 +263,49 @@
     <t>81,91%</t>
   </si>
   <si>
-    <t>28,12%</t>
+    <t>28,26%</t>
   </si>
   <si>
     <t>77,87%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>71,88%</t>
+    <t>71,74%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -323,157 +323,157 @@
     <t>52,95%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>52,41%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>50,54%</t>
+    <t>48,76%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E4A46-42E3-47AC-AD14-9726ADE8796E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC01322-713C-44FE-963D-D384FAC784F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB1B04D-0E6D-48DE-B69C-164E16620656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D492029-9994-4069-AB19-589B0CB80BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2585B5-29B5-4F20-B8A4-15CBC1F36FDB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F209C83-7C4A-4209-94BC-D48154B570A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cataratas en 2015 (Tasa respuesta: 1,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="146">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cataratas en 2016 (Tasa respuesta: 1,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -86,7 +86,7 @@
     <t>58,93%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>41,07%</t>
   </si>
   <si>
-    <t>95,88%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -122,58 +122,58 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,55%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>61,56%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>56,45%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>44,76%</t>
+    <t>45,36%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -182,64 +182,61 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>47,48%</t>
+    <t>53,55%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>73,47%</t>
   </si>
   <si>
-    <t>34,95%</t>
+    <t>35,19%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
   </si>
   <si>
     <t>54,09%</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>65,05%</t>
+    <t>64,81%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>62,05%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -248,64 +245,64 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>34,2%</t>
+    <t>34,78%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>28,26%</t>
+    <t>28,85%</t>
   </si>
   <si>
     <t>77,87%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>71,74%</t>
+    <t>71,15%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -323,157 +320,157 @@
     <t>52,95%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>52,41%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>48,76%</t>
+    <t>55,64%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -888,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC01322-713C-44FE-963D-D384FAC784F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAD426-69AB-4323-A0CB-778A50FBA2E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1451,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>12647</v>
+        <v>12646</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>57</v>
@@ -1508,10 +1505,10 @@
         <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,7 +1529,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1541,13 +1538,13 @@
         <v>1104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1556,13 +1553,13 @@
         <v>1104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="N15" s="7">
-        <v>23380</v>
+        <v>23379</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>27</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1630,10 +1627,10 @@
         <v>5152</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1645,13 +1642,13 @@
         <v>12590</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1660,13 +1657,13 @@
         <v>17743</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,13 +1678,13 @@
         <v>1138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1696,13 +1693,13 @@
         <v>3579</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1711,13 +1708,13 @@
         <v>4716</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,7 +1735,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1753,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1768,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,7 +1821,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1836,13 +1833,13 @@
         <v>5352</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -1851,13 +1848,13 @@
         <v>16130</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -1866,13 +1863,13 @@
         <v>21482</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1884,13 @@
         <v>2795</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -1902,13 +1899,13 @@
         <v>8906</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -1917,13 +1914,13 @@
         <v>11701</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1935,13 @@
         <v>1961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -1953,13 +1950,13 @@
         <v>5740</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -1968,13 +1965,13 @@
         <v>7701</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2039,13 @@
         <v>19429</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -2057,13 +2054,13 @@
         <v>46018</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -2072,13 +2069,13 @@
         <v>65447</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2090,13 @@
         <v>10489</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2108,13 +2105,13 @@
         <v>22363</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2123,13 +2120,13 @@
         <v>32853</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2141,13 @@
         <v>1961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2159,13 +2156,13 @@
         <v>8727</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2174,13 +2171,13 @@
         <v>10688</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,7 +2233,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
